--- a/Original/Files/天河制造/权限申请_20180420.xlsx
+++ b/Original/Files/天河制造/权限申请_20180420.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>目录结构</t>
   </si>
@@ -46,7 +46,7 @@
     <t>请在需要的权限表格中打“*”</t>
   </si>
   <si>
-    <t>qtmturi01</t>
+    <t>qtmturi_01</t>
   </si>
   <si>
     <t>001制度及公告</t>
@@ -58,13 +58,19 @@
     <t>003办公日常</t>
   </si>
   <si>
-    <t>qtmturi02</t>
+    <t>qtmturi_02</t>
   </si>
   <si>
     <t>QDGC201801</t>
   </si>
   <si>
     <t>QDGC201803</t>
+  </si>
+  <si>
+    <t>qtmturi_03(新建)</t>
+  </si>
+  <si>
+    <t>项目名称</t>
   </si>
   <si>
     <t>所有者：如果该目录下的权限需要调整，必须经所有者申请，并有书面记录（例如邮件或者标准模板）</t>
@@ -76,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -105,7 +111,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +178,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -126,24 +193,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,97 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -263,43 +269,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,121 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,15 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -529,6 +526,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +560,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,24 +576,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +594,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,137 +632,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1141,7 +1150,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1285,8 +1294,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1296,15 +1309,17 @@
     <row r="10" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="10" t="s">
-        <v>16</v>
+      <c r="B13" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Original/Files/天河制造/权限申请_20180420.xlsx
+++ b/Original/Files/天河制造/权限申请_20180420.xlsx
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>目录结构</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -37,30 +31,33 @@
     <t>二级目录</t>
   </si>
   <si>
-    <t>只读权限</t>
-  </si>
-  <si>
-    <t>读写权限</t>
-  </si>
-  <si>
-    <t>请在需要的权限表格中打“*”</t>
+    <t>只读</t>
+  </si>
+  <si>
+    <t>读写</t>
+  </si>
+  <si>
+    <t>无权限</t>
   </si>
   <si>
     <t>qtmturi_01</t>
   </si>
   <si>
+    <t>部门主管设置人员，可以要求加密文件；</t>
+  </si>
+  <si>
     <t>001制度及公告</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>003办公日常</t>
   </si>
   <si>
     <t>qtmturi_02</t>
   </si>
   <si>
+    <t>公司立项通知建立文件夹，并根据销售负责人提供信息设置权限；</t>
+  </si>
+  <si>
     <t>QDGC201801</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t>qtmturi_03(新建)</t>
   </si>
   <si>
-    <t>项目名称</t>
+    <t>测试预留</t>
   </si>
   <si>
     <t>所有者：如果该目录下的权限需要调整，必须经所有者申请，并有书面记录（例如邮件或者标准模板）</t>
@@ -82,11 +79,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,28 +93,75 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -125,30 +169,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,15 +186,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,23 +200,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +230,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,32 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +284,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,19 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,126 +470,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -463,54 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,56 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,8 +532,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +587,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,171 +616,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,186 +1125,161 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="7" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="27" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="46" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="3" ht="29.25" spans="1:6">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:6">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="23.25" spans="1:6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="1:6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="23.25" spans="1:6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="23.25" spans="1:6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+    <row r="10" ht="24" customHeight="1" spans="1:6">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
